--- a/00_Data/SampleList.xlsx
+++ b/00_Data/SampleList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/mathieu_simon_unibe_ch/Documents/FABTIB/00_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DADCD7E9-8F8F-4376-A8D6-CDD137C616D8}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA93EF1-0F26-4C44-93B4-894CAC4D8F85}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{E913811A-4AD7-CA48-9433-D824E84D6F4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="121">
   <si>
     <t>C0014618</t>
   </si>
@@ -312,6 +312,93 @@
   </si>
   <si>
     <t>Group (T2D or Ctrl)</t>
+  </si>
+  <si>
+    <t>C0020950</t>
+  </si>
+  <si>
+    <t>C0020969</t>
+  </si>
+  <si>
+    <t>C0020970</t>
+  </si>
+  <si>
+    <t>C0020971</t>
+  </si>
+  <si>
+    <t>C0021051</t>
+  </si>
+  <si>
+    <t>C0021057</t>
+  </si>
+  <si>
+    <t>C0023223</t>
+  </si>
+  <si>
+    <t>C0023247</t>
+  </si>
+  <si>
+    <t>C0023340</t>
+  </si>
+  <si>
+    <t>C0023343</t>
+  </si>
+  <si>
+    <t>C0023364</t>
+  </si>
+  <si>
+    <t>C0023381</t>
+  </si>
+  <si>
+    <t>C0023451</t>
+  </si>
+  <si>
+    <t>C0023452</t>
+  </si>
+  <si>
+    <t>C0023511</t>
+  </si>
+  <si>
+    <t>C0023688</t>
+  </si>
+  <si>
+    <t>C0024065</t>
+  </si>
+  <si>
+    <t>C0024066</t>
+  </si>
+  <si>
+    <t>C0024090</t>
+  </si>
+  <si>
+    <t>C0024091</t>
+  </si>
+  <si>
+    <t>C0024093</t>
+  </si>
+  <si>
+    <t>C0024264</t>
+  </si>
+  <si>
+    <t>C0024273</t>
+  </si>
+  <si>
+    <t>C0024275</t>
+  </si>
+  <si>
+    <t>C0020829</t>
+  </si>
+  <si>
+    <t>C0020931</t>
+  </si>
+  <si>
+    <t>C0024278</t>
+  </si>
+  <si>
+    <t>C0024282</t>
+  </si>
+  <si>
+    <t>C0024330</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1529,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:L32" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:L32" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:L61" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:L61" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EFE0719B-71AF-45A2-9C0C-F06955FA71D2}" name="Filename" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{A9D459DD-C430-497C-9694-4E8E36446451}" name="Specimen ID" dataDxfId="28"/>
@@ -1783,7 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61F126B-3880-3249-A743-AEAED9A190C5}">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3324,7 +3413,22 @@
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
     </row>
-    <row r="33" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3346,7 +3450,22 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -3368,7 +3487,22 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3380,7 +3514,22 @@
       <c r="U35" s="6"/>
       <c r="V35" s="4"/>
     </row>
-    <row r="36" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3402,7 +3551,22 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -3424,7 +3588,22 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -3446,7 +3625,22 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -3468,7 +3662,22 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -3490,7 +3699,22 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -3512,7 +3736,22 @@
       <c r="AF41" s="6"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3534,7 +3773,22 @@
       <c r="AF42" s="6"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3556,7 +3810,22 @@
       <c r="AF43" s="6"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -3578,7 +3847,22 @@
       <c r="AF44" s="6"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -3600,7 +3884,22 @@
       <c r="AF45" s="6"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3622,7 +3921,22 @@
       <c r="AF46" s="6"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3644,7 +3958,22 @@
       <c r="AF47" s="6"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -3666,7 +3995,22 @@
       <c r="AF48" s="6"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3688,7 +4032,22 @@
       <c r="AF49" s="6"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -3710,7 +4069,22 @@
       <c r="AF50" s="6"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -3722,7 +4096,22 @@
       <c r="U51" s="6"/>
       <c r="V51" s="7"/>
     </row>
-    <row r="52" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -3744,7 +4133,22 @@
       <c r="AF52" s="6"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -3766,7 +4170,22 @@
       <c r="AF53" s="6"/>
       <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -3788,7 +4207,22 @@
       <c r="AF54" s="6"/>
       <c r="AG54" s="7"/>
     </row>
-    <row r="55" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -3810,7 +4244,22 @@
       <c r="AF55" s="6"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -3832,7 +4281,22 @@
       <c r="AF56" s="6"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -3854,7 +4318,22 @@
       <c r="AF57" s="6"/>
       <c r="AG57" s="4"/>
     </row>
-    <row r="58" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3876,7 +4355,22 @@
       <c r="AF58" s="6"/>
       <c r="AG58" s="4"/>
     </row>
-    <row r="59" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3888,7 +4382,22 @@
       <c r="U59" s="6"/>
       <c r="V59" s="4"/>
     </row>
-    <row r="60" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3910,7 +4419,22 @@
       <c r="AF60" s="6"/>
       <c r="AG60" s="4"/>
     </row>
-    <row r="61" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3922,7 +4446,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="4"/>
     </row>
-    <row r="62" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.5">
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3934,7 +4458,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="4"/>
     </row>
-    <row r="63" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.5">
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3946,7 +4470,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="7"/>
     </row>
-    <row r="64" spans="13:33" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.5">
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>

--- a/00_Data/SampleList.xlsx
+++ b/00_Data/SampleList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/mathieu_simon_unibe_ch/Documents/FABTIB/00_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA93EF1-0F26-4C44-93B4-894CAC4D8F85}"/>
+  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D70D44-3036-47AB-A8AD-8453DE5AB5CB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{E913811A-4AD7-CA48-9433-D824E84D6F4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
   <si>
     <t>C0014618</t>
   </si>
@@ -399,6 +399,90 @@
   </si>
   <si>
     <t>C0024330</t>
+  </si>
+  <si>
+    <t>C0024276</t>
+  </si>
+  <si>
+    <t>C0024269</t>
+  </si>
+  <si>
+    <t>C0024268</t>
+  </si>
+  <si>
+    <t>C0024267</t>
+  </si>
+  <si>
+    <t>C0024262</t>
+  </si>
+  <si>
+    <t>C0024094</t>
+  </si>
+  <si>
+    <t>C0024067</t>
+  </si>
+  <si>
+    <t>C0024064</t>
+  </si>
+  <si>
+    <t>C0023986</t>
+  </si>
+  <si>
+    <t>C0023689</t>
+  </si>
+  <si>
+    <t>C0023676</t>
+  </si>
+  <si>
+    <t>C0023512</t>
+  </si>
+  <si>
+    <t>C0023380</t>
+  </si>
+  <si>
+    <t>C0023369</t>
+  </si>
+  <si>
+    <t>C0023367</t>
+  </si>
+  <si>
+    <t>C0023365</t>
+  </si>
+  <si>
+    <t>C0023344</t>
+  </si>
+  <si>
+    <t>C0023342</t>
+  </si>
+  <si>
+    <t>C0023248</t>
+  </si>
+  <si>
+    <t>C0023224</t>
+  </si>
+  <si>
+    <t>C0023217</t>
+  </si>
+  <si>
+    <t>C0021055</t>
+  </si>
+  <si>
+    <t>C0020968</t>
+  </si>
+  <si>
+    <t>C0020967</t>
+  </si>
+  <si>
+    <t>C0020966</t>
+  </si>
+  <si>
+    <t>C0020965</t>
+  </si>
+  <si>
+    <t>C0020953</t>
+  </si>
+  <si>
+    <t>C0020952</t>
   </si>
 </sst>
 </file>
@@ -1529,8 +1613,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:L61" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:L61" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:L89" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{EFE0719B-71AF-45A2-9C0C-F06955FA71D2}" name="Filename" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{A9D459DD-C430-497C-9694-4E8E36446451}" name="Specimen ID" dataDxfId="28"/>
@@ -1868,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61F126B-3880-3249-A743-AEAED9A190C5}">
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AG89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4447,6 +4531,21 @@
       <c r="V61" s="4"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -4459,6 +4558,21 @@
       <c r="V62" s="4"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -4471,6 +4585,21 @@
       <c r="V63" s="7"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="A64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -4482,7 +4611,22 @@
       <c r="U64" s="6"/>
       <c r="V64" s="4"/>
     </row>
-    <row r="65" spans="13:22" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -4494,7 +4638,22 @@
       <c r="U65" s="6"/>
       <c r="V65" s="7"/>
     </row>
-    <row r="66" spans="13:22" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -4506,7 +4665,22 @@
       <c r="U66" s="6"/>
       <c r="V66" s="4"/>
     </row>
-    <row r="67" spans="13:22" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -4517,6 +4691,380 @@
       <c r="T67" s="5"/>
       <c r="U67" s="6"/>
       <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A77" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A83" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A86" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A87" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">

--- a/00_Data/SampleList.xlsx
+++ b/00_Data/SampleList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/mathieu_simon_unibe_ch/Documents/FABTIB/00_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="348" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D70D44-3036-47AB-A8AD-8453DE5AB5CB}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:9_{99E2AE50-C5F7-E446-9B85-37C5075ADC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DCE97D-D7C6-47C2-9FDE-8105B5F64199}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{E913811A-4AD7-CA48-9433-D824E84D6F4D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SampleList_ID_Age_Sex_ofDonor" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleList_ID_Age_Sex_ofDonor!$A$1:$AG$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleList_ID_Age_Sex_ofDonor!$A$1:$AH$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
   <si>
     <t>C0014618</t>
   </si>
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>C0020952</t>
+  </si>
+  <si>
+    <t>Anatomical Location</t>
+  </si>
+  <si>
+    <t>Distal Femur</t>
+  </si>
+  <si>
+    <t>Femoral Head</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1613,23 +1642,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:L89" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EFE0719B-71AF-45A2-9C0C-F06955FA71D2}" name="Filename" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A9D459DD-C430-497C-9694-4E8E36446451}" name="Specimen ID" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{629B63C5-2D61-4A7A-81CD-988DCFC26020}" name="ID" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{654D6593-D99C-4352-9B88-9387BF6EDE0E}" name="Age (years)" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{258FB9CE-E6CE-42E4-9E2E-34EDEA35E3B1}" name="Sex (Male or Female)" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{C19BB9A2-248C-4BD1-A499-29EDF15EC63F}" name="Height (cm)" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{0F2C4641-6C0F-4FA4-948E-A6A5A1DA2EA5}" name="Weight (lbs)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{163CB557-8C1C-4588-9417-91719DE336D3}" name="Group (T2D or Ctrl)" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{4EF5F231-32C6-42C5-A104-329F7A283B69}" name="Duration of T2D (years)" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{963A13EE-A7C3-425F-A9D8-C2AD3134DAE2}" name="BMI (kg/m^2)" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}" name="Tableau1" displayName="Tableau1" ref="A1:M89" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:M89" xr:uid="{C9238200-1F5D-457F-9011-A37A5DC3E7F2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{EFE0719B-71AF-45A2-9C0C-F06955FA71D2}" name="Filename" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A9D459DD-C430-497C-9694-4E8E36446451}" name="Specimen ID" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{629B63C5-2D61-4A7A-81CD-988DCFC26020}" name="ID" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{654D6593-D99C-4352-9B88-9387BF6EDE0E}" name="Age (years)" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{258FB9CE-E6CE-42E4-9E2E-34EDEA35E3B1}" name="Sex (Male or Female)" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C19BB9A2-248C-4BD1-A499-29EDF15EC63F}" name="Height (cm)" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{0F2C4641-6C0F-4FA4-948E-A6A5A1DA2EA5}" name="Weight (lbs)" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{34AF56A5-A23A-4694-9838-433290FC5307}" name="Anatomical Location" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{163CB557-8C1C-4588-9417-91719DE336D3}" name="Group (T2D or Ctrl)" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{4EF5F231-32C6-42C5-A104-329F7A283B69}" name="Duration of T2D (years)" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{963A13EE-A7C3-425F-A9D8-C2AD3134DAE2}" name="BMI (kg/m^2)" dataDxfId="21">
       <calculatedColumnFormula>((G2*0.4536)/F2^2)*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F4DDB42E-5FC0-42BA-91AA-87DB31161377}" name="CKD (Yes or No)" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{0E043A9C-C55D-4D3A-9CC6-6AF45F704962}" name="Remarks" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{F4DDB42E-5FC0-42BA-91AA-87DB31161377}" name="CKD (Yes or No)" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{0E043A9C-C55D-4D3A-9CC6-6AF45F704962}" name="Remarks" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1952,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61F126B-3880-3249-A743-AEAED9A190C5}">
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1976,7 +2006,7 @@
     <col min="14" max="43" width="10.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="28" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:34" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="27" t="s">
         <v>89</v>
       </c>
@@ -1999,22 +2029,25 @@
         <v>85</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2036,19 +2069,23 @@
       <c r="G2" s="5">
         <v>300</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="6">
-        <f t="shared" ref="J2:J7" si="0">((G2*0.4536)/F2^2)*10000</f>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:K7" si="0">((G2*0.4536)/F2^2)*10000</f>
         <v>41.841781759342133</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2070,18 +2107,22 @@
       <c r="G3" s="5">
         <v>140</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <f t="shared" si="0"/>
         <v>24.031102749705497</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2103,21 +2144,24 @@
       <c r="G4" s="5">
         <v>250</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>47.237396275383801</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,22 +2183,25 @@
       <c r="G5" s="5">
         <v>145</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="6">
+      <c r="J5" s="4"/>
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>24.129421039907172</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2176,29 +2223,33 @@
       <c r="G6" s="5">
         <v>176.37</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6">
+      <c r="J6" s="4"/>
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>28.46704949608246</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2220,42 +2271,45 @@
       <c r="G7" s="5">
         <v>103.67</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6">
+      <c r="J7" s="4"/>
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>20.246791493582986</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="4"/>
-      <c r="X7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="5"/>
+      <c r="AD7" s="4"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2273,34 +2327,39 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="4"/>
-      <c r="X8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="5"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="5"/>
+      <c r="AD8" s="4"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2322,39 +2381,43 @@
       <c r="G9" s="5">
         <v>170</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6">
-        <f t="shared" ref="J9:J32" si="1">((G9*0.4536)/F9^2)*10000</f>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:K32" si="1">((G9*0.4536)/F9^2)*10000</f>
         <v>26.625938749761211</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="4"/>
-      <c r="X9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="5"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="5"/>
+      <c r="AD9" s="4"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2376,39 +2439,43 @@
       <c r="G10" s="5">
         <v>114.75</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6">
+      <c r="J10" s="4"/>
+      <c r="K10" s="6">
         <f t="shared" si="1"/>
         <v>19.696921718062189</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7"/>
-      <c r="X10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="7"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="5"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="5"/>
+      <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2430,38 +2497,42 @@
       <c r="G11" s="5">
         <v>406</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
         <v>63.589006661194425</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="5"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="5"/>
+      <c r="AD11" s="4"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2483,41 +2554,44 @@
       <c r="G12" s="5">
         <v>130</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f t="shared" si="1"/>
         <v>19.766562024473529</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="M12" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="5"/>
+      <c r="AD12" s="4"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2539,39 +2613,43 @@
       <c r="G13" s="5">
         <v>130</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6">
+      <c r="J13" s="4"/>
+      <c r="K13" s="6">
         <f t="shared" si="1"/>
         <v>22.314595410440823</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="4"/>
-      <c r="X13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="5"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="5"/>
+      <c r="AD13" s="4"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2593,42 +2671,45 @@
       <c r="G14" s="5">
         <v>145</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6">
+      <c r="J14" s="4"/>
+      <c r="K14" s="6">
         <f t="shared" si="1"/>
         <v>24.129421039907172</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="M14" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="4"/>
-      <c r="X14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="5"/>
+      <c r="AD14" s="4"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2650,38 +2731,42 @@
       <c r="G15" s="5">
         <v>280</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>37.975075950151897</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="4"/>
-      <c r="X15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="5"/>
+      <c r="AD15" s="4"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="7"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2703,28 +2788,32 @@
       <c r="G16" s="5">
         <v>256</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>38.924922140501721</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="L16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="5"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2746,18 +2835,22 @@
       <c r="G17" s="5">
         <v>104</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>14.505151009905273</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="L17" s="18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -2779,28 +2872,32 @@
       <c r="G18" s="5">
         <v>200</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f t="shared" si="1"/>
         <v>27.894521172894756</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="L18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U18" s="5"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -2822,31 +2919,34 @@
       <c r="G19" s="5">
         <v>92</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f t="shared" si="1"/>
         <v>17.967635935271868</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="L19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="M19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U19" s="5"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -2868,31 +2968,34 @@
       <c r="G20" s="5">
         <v>250</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <f t="shared" si="1"/>
         <v>35.871500314429198</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="L20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="M20" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="U20" s="5"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
@@ -2914,42 +3017,45 @@
       <c r="G21" s="22">
         <v>328</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="21">
+      <c r="J21" s="21">
         <v>20</v>
       </c>
-      <c r="J21" s="23">
+      <c r="K21" s="23">
         <f t="shared" si="1"/>
         <v>58.102973348803836</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="L21" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="21"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
+      <c r="S21" s="21"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="25"/>
-      <c r="X21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="25"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="21"/>
-      <c r="AD21" s="22"/>
+      <c r="AD21" s="21"/>
       <c r="AE21" s="22"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="21"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="21"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -2971,29 +3077,33 @@
       <c r="G22" s="5">
         <v>85</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6">
+      <c r="J22" s="4"/>
+      <c r="K22" s="6">
         <f t="shared" si="1"/>
         <v>16.060714733630491</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="5"/>
+      <c r="S22" s="4"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U22" s="5"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3015,39 +3125,43 @@
       <c r="G23" s="5">
         <v>170</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="6">
+      <c r="J23" s="4"/>
+      <c r="K23" s="6">
         <f t="shared" si="1"/>
         <v>23.056296112592221</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="8"/>
       <c r="AC23" s="4"/>
-      <c r="AD23" s="5"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="4"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="4"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3069,29 +3183,33 @@
       <c r="G24" s="5">
         <v>235</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="6">
+      <c r="J24" s="4"/>
+      <c r="K24" s="6">
         <f t="shared" si="1"/>
         <v>36.806444742316977</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="5"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U24" s="5"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3113,39 +3231,43 @@
       <c r="G25" s="5">
         <v>129</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="6">
+      <c r="J25" s="4"/>
+      <c r="K25" s="6">
         <f t="shared" si="1"/>
         <v>18.509694162245466</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="7"/>
-      <c r="X25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="7"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="5"/>
       <c r="AC25" s="4"/>
-      <c r="AD25" s="5"/>
+      <c r="AD25" s="4"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="6"/>
-      <c r="AG25" s="4"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="4"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3167,42 +3289,45 @@
       <c r="G26" s="5">
         <v>170</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="6">
+      <c r="J26" s="4"/>
+      <c r="K26" s="6">
         <f t="shared" si="1"/>
         <v>29.180624767499534</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="M26" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="5"/>
       <c r="AC26" s="4"/>
-      <c r="AD26" s="5"/>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="6"/>
-      <c r="AG26" s="4"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="4"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3224,41 +3349,44 @@
       <c r="G27" s="5">
         <v>344</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <f t="shared" si="1"/>
         <v>55.285714285714285</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="L27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="4"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="7"/>
-      <c r="X27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="7"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="5"/>
       <c r="AC27" s="4"/>
-      <c r="AD27" s="5"/>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="5"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="4"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="4"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3280,39 +3408,43 @@
       <c r="G28" s="5">
         <v>182.98400000000001</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="6">
+      <c r="J28" s="4"/>
+      <c r="K28" s="6">
         <f t="shared" si="1"/>
         <v>24.141986869074131</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="5"/>
       <c r="AC28" s="4"/>
-      <c r="AD28" s="5"/>
+      <c r="AD28" s="4"/>
       <c r="AE28" s="5"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="4"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="4"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3334,38 +3466,42 @@
       <c r="G29" s="5">
         <v>170</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <f t="shared" si="1"/>
         <v>26.625938749761211</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="5"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="7"/>
-      <c r="X29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="7"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="5"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="5"/>
+      <c r="AD29" s="4"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="4"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="4"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3387,29 +3523,33 @@
       <c r="G30" s="5">
         <v>218.29499999999999</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="6">
+      <c r="J30" s="4"/>
+      <c r="K30" s="6">
         <f t="shared" si="1"/>
         <v>27.285183210366419</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="5"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -3431,29 +3571,33 @@
       <c r="G31" s="5">
         <v>235</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="6">
+      <c r="J31" s="4"/>
+      <c r="K31" s="6">
         <f t="shared" si="1"/>
         <v>41.628654685880797</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="7"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U31" s="5"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="7"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -3475,29 +3619,33 @@
       <c r="G32" s="5">
         <v>247</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="6">
+      <c r="J32" s="4"/>
+      <c r="K32" s="6">
         <f t="shared" si="1"/>
         <v>36.475762932622274</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="5"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="5"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="7"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U32" s="5"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="7"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>92</v>
       </c>
@@ -3507,34 +3655,38 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="7"/>
-      <c r="X33" s="4"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="7"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="5"/>
       <c r="AC33" s="4"/>
-      <c r="AD33" s="5"/>
+      <c r="AD33" s="4"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="4"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="4"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
@@ -3544,34 +3696,38 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="4"/>
-      <c r="X34" s="4"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="5"/>
       <c r="AC34" s="4"/>
-      <c r="AD34" s="5"/>
+      <c r="AD34" s="4"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="4"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="4"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
@@ -3581,24 +3737,28 @@
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U35" s="5"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
@@ -3608,34 +3768,38 @@
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="17"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="4"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="4"/>
-      <c r="X36" s="4"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="5"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="5"/>
+      <c r="AD36" s="4"/>
       <c r="AE36" s="5"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="4"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="4"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>96</v>
       </c>
@@ -3645,34 +3809,38 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="17"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="4"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="4"/>
-      <c r="X37" s="4"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="5"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="5"/>
+      <c r="AD37" s="4"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="4"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="4"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -3682,34 +3850,38 @@
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="17"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="4"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="7"/>
-      <c r="X38" s="4"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="7"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="5"/>
       <c r="AC38" s="4"/>
-      <c r="AD38" s="5"/>
+      <c r="AD38" s="4"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="4"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="4"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
@@ -3719,34 +3891,38 @@
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="17"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="4"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="7"/>
-      <c r="X39" s="4"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="7"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="5"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="5"/>
+      <c r="AD39" s="4"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="7"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="7"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
@@ -3756,34 +3932,38 @@
       <c r="E40" s="4"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="17"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="5"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="4"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="7"/>
-      <c r="X40" s="4"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="7"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="5"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="5"/>
+      <c r="AD40" s="4"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="4"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="4"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>100</v>
       </c>
@@ -3793,34 +3973,38 @@
       <c r="E41" s="4"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="17"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="4"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="4"/>
-      <c r="X41" s="4"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="5"/>
       <c r="AC41" s="4"/>
-      <c r="AD41" s="5"/>
+      <c r="AD41" s="4"/>
       <c r="AE41" s="5"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="4"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="4"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>101</v>
       </c>
@@ -3830,34 +4014,38 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="17"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="4"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7"/>
-      <c r="X42" s="4"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="7"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="5"/>
       <c r="AC42" s="4"/>
-      <c r="AD42" s="5"/>
+      <c r="AD42" s="4"/>
       <c r="AE42" s="5"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="4"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -3867,34 +4055,38 @@
       <c r="E43" s="4"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="17"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="4"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="7"/>
-      <c r="X43" s="4"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="7"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="5"/>
       <c r="AC43" s="4"/>
-      <c r="AD43" s="5"/>
+      <c r="AD43" s="4"/>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="4"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="4"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>103</v>
       </c>
@@ -3904,34 +4096,38 @@
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="17"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="7"/>
-      <c r="X44" s="4"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="7"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="5"/>
       <c r="AC44" s="4"/>
-      <c r="AD44" s="5"/>
+      <c r="AD44" s="4"/>
       <c r="AE44" s="5"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="4"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="4"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -3941,34 +4137,38 @@
       <c r="E45" s="4"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="17"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="12"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="4"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="7"/>
-      <c r="X45" s="4"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="7"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="5"/>
       <c r="AC45" s="4"/>
-      <c r="AD45" s="5"/>
+      <c r="AD45" s="4"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="4"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="4"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -3978,34 +4178,38 @@
       <c r="E46" s="4"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="17"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="5"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="4"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="4"/>
-      <c r="X46" s="4"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="5"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="5"/>
+      <c r="AD46" s="4"/>
       <c r="AE46" s="5"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="4"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="4"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -4015,34 +4219,38 @@
       <c r="E47" s="4"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="4"/>
-      <c r="M47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="17"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="5"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="4"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="4"/>
-      <c r="X47" s="4"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="9"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="5"/>
+      <c r="AD47" s="4"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="4"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="4"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
@@ -4052,34 +4260,38 @@
       <c r="E48" s="4"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="17"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="4"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="7"/>
-      <c r="X48" s="4"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="7"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="5"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="5"/>
+      <c r="AD48" s="4"/>
       <c r="AE48" s="5"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="4"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="4"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -4089,34 +4301,38 @@
       <c r="E49" s="4"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="17"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="5"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="4"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="7"/>
-      <c r="X49" s="4"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="7"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="5"/>
       <c r="AC49" s="4"/>
-      <c r="AD49" s="5"/>
+      <c r="AD49" s="4"/>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="4"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="4"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
@@ -4126,34 +4342,38 @@
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="17"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="5"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="4"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="4"/>
-      <c r="X50" s="4"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="5"/>
       <c r="AC50" s="4"/>
-      <c r="AD50" s="5"/>
+      <c r="AD50" s="4"/>
       <c r="AE50" s="5"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="4"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="4"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>110</v>
       </c>
@@ -4163,24 +4383,28 @@
       <c r="E51" s="4"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="17"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="4"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="7"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U51" s="5"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="7"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -4190,34 +4414,38 @@
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="4"/>
-      <c r="M52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="17"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="5"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="4"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="7"/>
-      <c r="X52" s="4"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="7"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="5"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="5"/>
+      <c r="AD52" s="4"/>
       <c r="AE52" s="5"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="4"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="4"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>112</v>
       </c>
@@ -4227,34 +4455,38 @@
       <c r="E53" s="4"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="17"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="12"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="4"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="4"/>
-      <c r="X53" s="4"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="5"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="5"/>
+      <c r="AD53" s="4"/>
       <c r="AE53" s="5"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="4"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="4"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -4264,34 +4496,38 @@
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="17"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="5"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="4"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="4"/>
-      <c r="X54" s="4"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="5"/>
       <c r="AC54" s="4"/>
-      <c r="AD54" s="5"/>
+      <c r="AD54" s="4"/>
       <c r="AE54" s="5"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="7"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="7"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -4301,34 +4537,38 @@
       <c r="E55" s="4"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="17"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="5"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="4"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="7"/>
-      <c r="X55" s="4"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="7"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="5"/>
       <c r="AC55" s="4"/>
-      <c r="AD55" s="5"/>
+      <c r="AD55" s="4"/>
       <c r="AE55" s="5"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="4"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="4"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>115</v>
       </c>
@@ -4338,34 +4578,38 @@
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="17"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="5"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="4"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="4"/>
-      <c r="X56" s="4"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="5"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="5"/>
+      <c r="AD56" s="4"/>
       <c r="AE56" s="5"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="4"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="4"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
@@ -4375,34 +4619,38 @@
       <c r="E57" s="4"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="4"/>
-      <c r="M57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="17"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="5"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="4"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="7"/>
-      <c r="X57" s="4"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="7"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="5"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="5"/>
+      <c r="AD57" s="4"/>
       <c r="AE57" s="5"/>
-      <c r="AF57" s="6"/>
-      <c r="AG57" s="4"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="4"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -4412,34 +4660,38 @@
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="5"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="4"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="4"/>
-      <c r="X58" s="4"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="5"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="5"/>
+      <c r="AD58" s="4"/>
       <c r="AE58" s="5"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="4"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="4"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -4449,24 +4701,28 @@
       <c r="E59" s="4"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="17"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="5"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="4"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="4"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U59" s="5"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
@@ -4476,34 +4732,38 @@
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="17"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="5"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="4"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="7"/>
-      <c r="X60" s="4"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="7"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="5"/>
       <c r="AC60" s="4"/>
-      <c r="AD60" s="5"/>
+      <c r="AD60" s="4"/>
       <c r="AE60" s="5"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="4"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="4"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -4513,24 +4773,28 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="17"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="5"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="4"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="4"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U61" s="5"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
@@ -4540,24 +4804,28 @@
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="17"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="5"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="4"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="4"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U62" s="5"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -4567,24 +4835,28 @@
       <c r="E63" s="4"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="17"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="5"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="4"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="7"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.5">
+      <c r="U63" s="5"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="7"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
         <v>123</v>
       </c>
@@ -4594,24 +4866,28 @@
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="17"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="5"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="4"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="4"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="U64" s="5"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>124</v>
       </c>
@@ -4621,24 +4897,28 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="17"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="5"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="4"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="7"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="U65" s="5"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="7"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>125</v>
       </c>
@@ -4648,24 +4928,28 @@
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="17"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="5"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="4"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="4"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="U66" s="5"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>126</v>
       </c>
@@ -4675,24 +4959,28 @@
       <c r="E67" s="4"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="4"/>
-      <c r="M67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="17"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="5"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="4"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="S67" s="4"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>127</v>
       </c>
@@ -4702,14 +4990,18 @@
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J68" s="4"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="17"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>128</v>
       </c>
@@ -4719,14 +5011,18 @@
       <c r="E69" s="4"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J69" s="4"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="17"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -4736,14 +5032,18 @@
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J70" s="4"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="17"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
@@ -4753,14 +5053,18 @@
       <c r="E71" s="4"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J71" s="4"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
@@ -4770,14 +5074,18 @@
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="4" t="s">
+      <c r="H72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J72" s="4"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
         <v>132</v>
       </c>
@@ -4787,14 +5095,18 @@
       <c r="E73" s="4"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="4" t="s">
+      <c r="H73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J73" s="4"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="17"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>133</v>
       </c>
@@ -4804,14 +5116,18 @@
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J74" s="4"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
@@ -4821,14 +5137,18 @@
       <c r="E75" s="4"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="4" t="s">
+      <c r="H75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J75" s="4"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="17"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>135</v>
       </c>
@@ -4838,14 +5158,18 @@
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J76" s="4"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="17"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
@@ -4855,14 +5179,18 @@
       <c r="E77" s="4"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I77" s="4"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J77" s="4"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="17"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4872,14 +5200,18 @@
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="4" t="s">
+      <c r="H78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J78" s="4"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="17"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>138</v>
       </c>
@@ -4889,14 +5221,18 @@
       <c r="E79" s="4"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I79" s="4"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="J79" s="4"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="17"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
         <v>139</v>
       </c>
@@ -4906,14 +5242,18 @@
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J80" s="4"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
@@ -4923,14 +5263,18 @@
       <c r="E81" s="4"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J81" s="4"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="17"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>141</v>
       </c>
@@ -4940,14 +5284,18 @@
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I82" s="4"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J82" s="4"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
         <v>142</v>
       </c>
@@ -4957,14 +5305,18 @@
       <c r="E83" s="4"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I83" s="4"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J83" s="4"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="17"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>143</v>
       </c>
@@ -4974,14 +5326,18 @@
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I84" s="4"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J84" s="4"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="17"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>144</v>
       </c>
@@ -4991,14 +5347,18 @@
       <c r="E85" s="4"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I85" s="4"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="4"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J85" s="4"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="17"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
         <v>145</v>
       </c>
@@ -5008,14 +5368,18 @@
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I86" s="4"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J86" s="4"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
         <v>146</v>
       </c>
@@ -5025,14 +5389,18 @@
       <c r="E87" s="4"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I87" s="4"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J87" s="4"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="17"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
         <v>147</v>
       </c>
@@ -5042,14 +5410,18 @@
       <c r="E88" s="4"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I88" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="J88" s="4"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
         <v>148</v>
       </c>
@@ -5059,70 +5431,74 @@
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
     <sortCondition ref="A2:A32"/>
   </sortState>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 B2 B20:B23 B28:B31 B17:B18 B11:B12 B4 B8:B9 B14">
-    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20 C17:C18 C11:C12 C14">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  <conditionalFormatting sqref="N48">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36:X39 C28 C25 M38:M47 X33:X34 X23 M49:M68 X25:X29 X21 X7:X15 M8:M16 M18:M36 C6:C7 C9:C10">
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+  <conditionalFormatting sqref="Y36:Y39 C28 C25 N38:N47 Y33:Y34 Y23 N49:N68 Y25:Y29 Y21 Y7:Y15 N8:N16 N18:N36 C6:C7 C9:C10">
+    <cfRule type="duplicateValues" dxfId="2" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X60 X40:X50 X52:X58 C30:C32">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  <conditionalFormatting sqref="Y60 Y40:Y50 Y52:Y58 C30:C32">
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="127" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
